--- a/INTLINE/data/134/DEUSTATIS/old/Population - reference date.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/Population - reference date.xlsx
@@ -257,7 +257,7 @@
     <t>From 2011: Results based on the 2011 Census.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:41:44</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-03-31 / 11:41:40</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1566,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup usePrinterDefaults="false"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:41:48&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 31.03.22 / 11:41:42&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>